--- a/Output_testing/R1_201907/Country/HKD/MN/U ARAB EMIRATES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/U ARAB EMIRATES_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>17170.482721</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>32.31199431064773</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>18482.327558</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>35.97874938529802</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>21234.218696</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>44.77592327140575</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>14956.869473</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>53.3240240520932</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>40.87327968020895</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>21561.456486</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>40.5750770450288</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>19639.325702</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>38.23102773777276</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>11066.620293</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>23.33583110390085</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>6836.250828</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>24.37250684285717</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>14.35022612154184</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2639.739942</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.967551779029193</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1545.902969</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>3.009342590704404</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3256.830738</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.867575648550425</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1123.853954</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.00674856341551</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-47.32175044610577</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2008.606329</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.779863229797372</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1913.704235</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.725325441429364</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>2717.764623</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.730864034668365</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>893.215269</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.184478715538289</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-37.564192272774</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1745.437738</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.284623686838388</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1930.792414</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.75859026198634</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>2465.237012</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.198367073234254</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>468.320812</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.669650877696325</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-67.92471373529558</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>962.32159</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.810929270093494</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>932.027242</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.814337206986346</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>790.359011</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.666604970969172</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>457.299123</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.630356504606311</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>8.7311101475958</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>192.121776</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3615412469138781</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>206.866691</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.4026984592875748</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>329.190966</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.694154545843147</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>245.610423</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8756468809960031</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>39.52224747168553</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>458.541834</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.8628995102904758</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>472.596128</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.9199824857781163</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>472.840533</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.9970638302414609</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>226.317728</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.8068648317799682</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-21.28949660076035</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>137.40978</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2585823649650296</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>155.717436</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3031284121106357</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>215.594837</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.4546179926573753</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>191.07684</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.6812245055926325</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>52.24653848727145</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>442.265197</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8322695850468921</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>381.894622</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.743417778600281</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>362.482235</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7643547885595191</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>190.14567</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.6779047111954011</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-8.11224764730224</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>5821.272909</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>10.95466797134875</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>5708.967294</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.11340024004616</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>4512.157204</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>9.514642739969673</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2460.066072</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>8.770593514229194</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-3.839151218146086</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,469 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>359.362021</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>49.1711622316982</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>406.301583</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>60.94228970191826</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>537.838693</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>62.40879236381873</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>202.461617</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>49.5217440179319</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-9.830470703006643</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>296.594945</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>40.58280314963113</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>218.434178</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>32.76354194385795</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>269.387864</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>31.25876120204806</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>169.905244</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>41.55851427716425</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>36.44305868046111</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>13.295977</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.819275838544797</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>11.896099</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.784328542920543</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>17.681761</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.051725480590642</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>19.784685</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.839298038627327</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>460.7921396580318</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>6.062692</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.8295523579906037</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>6.683316</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.002448912047349</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>6.184542</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.51272774726554</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>6.067567</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.830219399586186</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>4.733176</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.7099420604575066</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>5.091693</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.5908210311996078</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>2.678149</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.6550703841305402</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-0.5001095998305893</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>2.333431</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.3192811358812838</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.522825</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.2284127017918207</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>1.667598</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.1935018411334705</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>1.526306</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.3733316771101042</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>7.562237578911324</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>1.49832</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.3664863523091774</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>3.649903</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.4235211066807331</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>1.269741</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.3105763438166795</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-37.82700728747555</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>3.850644</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.4468143422752673</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>0.765787</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.1873101101739201</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-77.3309308093214</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>1.415139</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.193632118262723</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.530967</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.2296339427210076</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>2.341305</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.2716762841853972</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>0.5994119999999999</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.1466150871711975</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-69.90465479412164</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>45.531941</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>6.230092015302616</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>15.496944</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>2.324429168523333</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>20.078032</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>2.329779814041955</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>2.159975</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.5283259642993589</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-89.46532388309924</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1762,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>17142.428236</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>32.70905376666666</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>18480.297905</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>36.44783068635662</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>21234.146089</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>45.60451798455332</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>14956.869473</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>54.11275453142002</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>40.92601990085902</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>21555.393794</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>41.12932688783046</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>19632.642386</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>38.72054602632318</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>11066.430321</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>23.76734239670186</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>6830.066286</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>24.71063219712071</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>14.24948930007906</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2280.377921</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.351134098357647</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1139.601386</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.247582727312389</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2718.992045</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.839571843216016</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>921.392337</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.333523599254347</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-51.73167161638987</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2006.821072</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.829166874169997</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1913.113909</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.773145443725782</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>2717.362038</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.83607108160145</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>893.215269</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.23158122643017</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-37.564192272774</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1745.437738</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.330427640275351</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1930.792414</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.808011935615697</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>2465.237012</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.294582846831824</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>468.320812</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.694347148476403</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-67.92471373529558</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>962.2845119999999</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.836111862830411</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>931.993734</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.838127826304502</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>790.359011</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.697451905074499</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>457.299123</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.654471561378762</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>8.7311101475958</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>192.121776</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3665829259669586</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>206.866691</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4079935381439325</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>329.190966</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7070025451636365</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>245.610423</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8885988176970727</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>39.52224747168553</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>458.181103</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.8742443092994748</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>472.457922</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.9318067509520421</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>472.713086</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.015244613165226</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>226.269556</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.8186251116160556</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-21.27429632740758</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>442.146807</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.8436496559193171</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>381.861978</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.7531285908511027</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>362.458043</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7784501562416231</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>190.14567</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.6879317884331715</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-8.10150400931844</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>137.40978</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.2621882862923153</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>155.691745</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3070635760416011</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>215.57275</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.4629850107062912</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>189.57852</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.6858798852065039</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>51.07929217643508</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>5486.214582</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>10.46811369239141</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>5458.103308</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.76476289837315</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>4189.035235</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.996779616744259</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2261.424945</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>8.181654132966774</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-5.864874877593373</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2220,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>13095.23387</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>44.44131274061808</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>14204.513115</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>42.47858241556269</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>13392.445114</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>39.58279772663744</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>7759.111833</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>38.58503706516142</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-1.362067045809223</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>8778.097739000001</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>29.79024206511643</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>9877.457264000001</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>29.53852617461027</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>11730.214331</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>34.66989763271071</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>7727.639762</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>38.42853061800756</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>39.47195407666067</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2770.071403</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>9.400795034030629</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3457.393086</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>10.33933060271933</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3542.531407</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>10.47032882568671</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1687.036093</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.389407393487961</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-17.92504876046617</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>162.047547</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.5499409775013822</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>962.455949</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.878223563169634</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>636.2196709999999</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.880414990133132</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>625.012018</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.108102112684337</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>25.38781590378807</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>277.66255</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.9423037681806216</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>473.08076</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.414747544683937</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>438.800396</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.29692129923904</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>235.686101</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.17203581267526</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-0.332556209864654</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>37.041419</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1257075133195214</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>60.344546</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.1804603051042847</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>54.154614</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.1600597287261078</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>225.668715</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.122220676816265</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>993.8408802660326</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>250.517119</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.8501802826036612</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>167.665589</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.5014037780055485</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>237.02693</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.7005583331566567</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>193.573485</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.9626153423631765</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>47.55810858257883</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>404.006089</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.37107600586617</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>452.59311</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.353479247630715</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>465.179529</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.374887635994942</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>192.694812</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.9582458177316379</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-24.50083758134324</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>165.639924</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.5621324321423677</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>392.028966</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.172362234924715</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>288.54536</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.8528265393374815</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>179.422475</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.8922442409908231</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>1.409312265740414</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>289.157562</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.9813144058156987</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>345.723196</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.033884875557576</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>373.494812</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.10390369118555</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>174.811142</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.8693126917936507</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-30.36616807506323</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>3236.877283</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>10.98499477480543</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>3045.979693</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>9.108999258031297</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>2675.391199</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.907403597192224</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>1108.464672</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>5.51224822828791</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-33.62549537078134</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
